--- a/biology/Zoologie/Cophyla_tuberifera/Cophyla_tuberifera.xlsx
+++ b/biology/Zoologie/Cophyla_tuberifera/Cophyla_tuberifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla tuberifera est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla tuberifera est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 400 et 1 200 m d'altitude entre le Sud du massif du Manongarivo dans la province d'Antsiranana et le massif d'Andringitra[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 400 et 1 200 m d'altitude entre le Sud du massif du Manongarivo dans la province d'Antsiranana et le massif d'Andringitra,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla tuberifera mesure de 30  à   40 mm. Son dos varie du brun au jaune avec généralement une ligne médiane claire et parfois des taches sombres ou claires. Son ventre est blanchâtre. La peau de son dos est lisse. Les mâles ont un seul sac vocal[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla tuberifera mesure de 30  à   40 mm. Son dos varie du brun au jaune avec généralement une ligne médiane claire et parfois des taches sombres ou claires. Son ventre est blanchâtre. La peau de son dos est lisse. Les mâles ont un seul sac vocal.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Methuen, 1920 "1919" : Descriptions of a new snake from the Transvaal, together with a new diagnosis and key to the genus Xenocalamus, and of some Batrachia from Madagascar. Proceedings of the Zoological Society of London, vol. 1919, p. 349-355 (texte intégral).</t>
         </is>
